--- a/fredgraph.xlsx
+++ b/fredgraph.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itunuolaitan/Insurance Fraud Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187868C-4F94-2A4C-8188-516F62208711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA95CA5-5C46-4742-B160-43CA10DDCFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="FRED Graph" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="FRED Graph" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>FRED Graph Observations</t>
   </si>
@@ -72,43 +74,85 @@
     <t>observation_date</t>
   </si>
   <si>
-    <t>Quarter</t>
+    <t>1994Q1</t>
   </si>
   <si>
-    <t>Q1 1994</t>
+    <t>1994Q2</t>
   </si>
   <si>
-    <t>Q2 1994</t>
+    <t>1994Q3</t>
   </si>
   <si>
-    <t>Q3 1994</t>
+    <t>1994Q4</t>
   </si>
   <si>
-    <t>Q4 1994</t>
+    <t>1995Q1</t>
   </si>
   <si>
-    <t>Q1 1995</t>
+    <t>1995Q2</t>
   </si>
   <si>
-    <t>Q2 1995</t>
+    <t>1995Q3</t>
   </si>
   <si>
-    <t>Q3 1995</t>
+    <t>1995Q4</t>
   </si>
   <si>
-    <t>Q4 1995</t>
+    <t>1996Q1</t>
   </si>
   <si>
-    <t>Q1 1996</t>
+    <t>1996Q2</t>
   </si>
   <si>
-    <t>Q2 1996</t>
+    <t>1996Q3</t>
   </si>
   <si>
-    <t>Q3 1996</t>
+    <t>1996Q4</t>
   </si>
   <si>
-    <t>Q4 1996</t>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -120,7 +164,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +180,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,11 +208,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +248,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,7 +1652,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3014,11 +3094,268 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6FA14D-6E2C-D449-81AC-D89609CAFB50}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14">
+        <v>9.7008460856263176E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB539A38-C15D-7043-9E34-3E13A02282BC}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13">
+        <v>7666.7025000000003</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.3726983333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13">
+        <v>103.69447453350789</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.10986281212323949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7632.0609999999997</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1.290375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13">
+        <v>359.20819671238542</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.3805759449196896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13">
+        <v>129030.52858536379</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.14483804985151461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="13">
+        <v>-0.9238589474754022</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-0.24940637517934983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.17710885958731826</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.34993414551710578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1144.1190000000006</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1.3085499999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7115.652</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.78044999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13">
+        <v>8259.7710000000006</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="13">
+        <v>92000.43</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13">
+        <v>16.472380000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14">
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3037,9 +3374,6 @@
       <c r="C1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
@@ -3052,7 +3386,7 @@
         <v>1.45306</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3066,7 +3400,7 @@
         <v>1.84493</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3080,7 +3414,7 @@
         <v>1.1611</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3094,7 +3428,7 @@
         <v>1.69434</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3108,7 +3442,7 @@
         <v>0.89870000000000005</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3122,7 +3456,7 @@
         <v>0.78044999999999998</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3136,7 +3470,7 @@
         <v>1.3471599999999999</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3150,7 +3484,7 @@
         <v>1.16438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3164,7 +3498,7 @@
         <v>1.23359</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -3178,7 +3512,7 @@
         <v>2.089</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3192,7 +3526,7 @@
         <v>1.22706</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3206,15 +3540,16 @@
         <v>1.5786100000000001</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C313"/>
   <sheetViews>
